--- a/GPS coords.xlsx
+++ b/GPS coords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\field work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6791CB2-88D6-4B79-AFAD-129C672CBEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDDC4A-E604-416E-B869-1CB03C305FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{35C48D0B-0DC9-40B3-AF0B-18118B50565A}"/>
   </bookViews>
@@ -31,29 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="311">
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="306">
   <si>
     <t>ns1:ele</t>
   </si>
   <si>
-    <t>ns1:time6</t>
-  </si>
-  <si>
-    <t>ns1:name7</t>
-  </si>
-  <si>
     <t>ns1:desc8</t>
   </si>
   <si>
@@ -951,19 +933,22 @@
     <t>TECHICIENS MUNIS</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>ns1:name8</t>
+    <t>Name of WTU</t>
+  </si>
+  <si>
+    <t>Time and Date</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>App version</t>
   </si>
 </sst>
 </file>
@@ -1790,25 +1775,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6276516F-BD6A-457D-BFF1-0CA7307DFFCB}" name="Table1" displayName="Table1" ref="A1:G138" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:G138" xr:uid="{E182BA56-1862-4A8C-B88B-DEF8F22359BB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{514AC928-28E1-4925-B261-853ABFA8768D}" uniqueName="version" name="version">
+    <tableColumn id="1" xr3:uid="{514AC928-28E1-4925-B261-853ABFA8768D}" uniqueName="version" name="App version">
       <xmlColumnPr mapId="1" xpath="/ns1:gpx/@version" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{04095F34-BA70-4181-A9D9-6574580C12A4}" uniqueName="creator" name="creator">
+    <tableColumn id="2" xr3:uid="{04095F34-BA70-4181-A9D9-6574580C12A4}" uniqueName="creator" name="Creator">
       <xmlColumnPr mapId="1" xpath="/ns1:gpx/@creator" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{B4230F50-BB18-4516-9E64-224FD6A1EC89}" uniqueName="lat" name="lat">
+    <tableColumn id="23" xr3:uid="{B4230F50-BB18-4516-9E64-224FD6A1EC89}" uniqueName="lat" name="Latitude">
       <xmlColumnPr mapId="1" xpath="/ns1:gpx/ns1:wpt/@lat" xmlDataType="decimal"/>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{680728D5-3E52-40F8-9FF6-45BA23CC3E05}" uniqueName="lon" name="lon">
+    <tableColumn id="24" xr3:uid="{680728D5-3E52-40F8-9FF6-45BA23CC3E05}" uniqueName="lon" name="Longitude">
       <xmlColumnPr mapId="1" xpath="/ns1:gpx/ns1:wpt/@lon" xmlDataType="decimal"/>
     </tableColumn>
     <tableColumn id="25" xr3:uid="{321696BD-1CC5-43CB-8305-51B664B9604B}" uniqueName="ns1:ele" name="ns1:ele">
       <xmlColumnPr mapId="1" xpath="/ns1:gpx/ns1:wpt/ns1:ele" xmlDataType="decimal"/>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{3695E3BF-5B42-4394-B97B-80720D9AFB07}" uniqueName="ns1:time" name="ns1:time6">
+    <tableColumn id="26" xr3:uid="{3695E3BF-5B42-4394-B97B-80720D9AFB07}" uniqueName="ns1:time" name="Time and Date">
       <xmlColumnPr mapId="1" xpath="/ns1:gpx/ns1:wpt/ns1:time" xmlDataType="dateTime"/>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{EC4B61BE-7D8F-4F88-AAC1-D617067E2ADD}" uniqueName="ns1:name" name="ns1:name7">
+    <tableColumn id="29" xr3:uid="{EC4B61BE-7D8F-4F88-AAC1-D617067E2ADD}" uniqueName="ns1:name" name="Name of WTU">
       <xmlColumnPr mapId="1" xpath="/ns1:gpx/ns1:wpt/ns1:name" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2116,7 +2101,7 @@
   <dimension ref="A1:CF138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,231 +2194,231 @@
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Z1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AA1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AG1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AI1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AJ1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AN1" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AO1" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AP1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AR1" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AS1" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AV1" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AX1" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AY1" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AZ1" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BA1" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BB1" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BC1" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BD1" t="s">
         <v>38</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BE1" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>40</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BG1" t="s">
         <v>41</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BH1" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BI1" t="s">
         <v>43</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BJ1" t="s">
         <v>44</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>45</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BL1" t="s">
         <v>46</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BM1" t="s">
         <v>47</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BN1" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BO1" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BP1" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BQ1" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BR1" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BS1" t="s">
         <v>53</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BT1" t="s">
         <v>54</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BU1" t="s">
         <v>55</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BV1" t="s">
         <v>56</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BW1" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BX1" t="s">
         <v>58</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BY1" t="s">
         <v>59</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BZ1" t="s">
         <v>60</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CA1" t="s">
         <v>61</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CB1" t="s">
         <v>62</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CC1" t="s">
         <v>63</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CD1" t="s">
         <v>64</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CE1" t="s">
         <v>65</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CF1" t="s">
         <v>66</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -2487,10 +2472,10 @@
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>3.8328717000000001</v>
@@ -2499,10 +2484,10 @@
         <v>11.469697699999999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2554,10 +2539,10 @@
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>3.8340320000000001</v>
@@ -2566,10 +2551,10 @@
         <v>11.4944671</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2621,10 +2606,10 @@
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>3.8340044</v>
@@ -2633,10 +2618,10 @@
         <v>11.4948096</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2688,10 +2673,10 @@
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>3.8198403000000001</v>
@@ -2700,10 +2685,10 @@
         <v>11.490553500000001</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2755,10 +2740,10 @@
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>3.8194887999999998</v>
@@ -2767,10 +2752,10 @@
         <v>11.489792599999999</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2822,10 +2807,10 @@
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>3.8189738000000002</v>
@@ -2834,10 +2819,10 @@
         <v>11.489573099999999</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2889,10 +2874,10 @@
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>3.8182347999999999</v>
@@ -2901,10 +2886,10 @@
         <v>11.489979399999999</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2956,10 +2941,10 @@
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>3.8180782</v>
@@ -2968,10 +2953,10 @@
         <v>11.4894818</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3023,10 +3008,10 @@
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>3.8067142</v>
@@ -3035,10 +3020,10 @@
         <v>11.489027699999999</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3090,10 +3075,10 @@
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>3.8033342000000001</v>
@@ -3102,10 +3087,10 @@
         <v>11.4856015</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3157,10 +3142,10 @@
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>3.8037226</v>
@@ -3169,10 +3154,10 @@
         <v>11.485465700000001</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3224,10 +3209,10 @@
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>3.8379802000000001</v>
@@ -3236,10 +3221,10 @@
         <v>11.496577800000001</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3291,10 +3276,10 @@
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>3.8384999</v>
@@ -3303,10 +3288,10 @@
         <v>11.49666</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3358,10 +3343,10 @@
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>3.8263774000000002</v>
@@ -3370,10 +3355,10 @@
         <v>11.4924195</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3425,10 +3410,10 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>3.8376657999999999</v>
@@ -3437,7 +3422,7 @@
         <v>11.500729099999999</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3490,10 +3475,10 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <v>3.8212831</v>
@@ -3502,10 +3487,10 @@
         <v>11.4891521</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3557,10 +3542,10 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>3.8270390999999999</v>
@@ -3569,7 +3554,7 @@
         <v>11.4814705</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3622,10 +3607,10 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>3.8264033</v>
@@ -3634,7 +3619,7 @@
         <v>11.4813923</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3687,10 +3672,10 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>3.8752100999999999</v>
@@ -3699,10 +3684,10 @@
         <v>11.445924099999999</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3754,10 +3739,10 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>3.8199903000000002</v>
@@ -3766,10 +3751,10 @@
         <v>11.4719035</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3821,10 +3806,10 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>3.8178911000000002</v>
@@ -3833,7 +3818,7 @@
         <v>11.4705824</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3886,10 +3871,10 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>3.8169903000000001</v>
@@ -3898,10 +3883,10 @@
         <v>11.4693425</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3953,10 +3938,10 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>3.8166997999999999</v>
@@ -3965,10 +3950,10 @@
         <v>11.469164299999999</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -4020,10 +4005,10 @@
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>3.8164254999999998</v>
@@ -4032,10 +4017,10 @@
         <v>11.4683226</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -4087,10 +4072,10 @@
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>3.8169344999999999</v>
@@ -4099,10 +4084,10 @@
         <v>11.4682444</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -4154,10 +4139,10 @@
     </row>
     <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>3.8165659999999999</v>
@@ -4166,10 +4151,10 @@
         <v>11.4680967</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4221,10 +4206,10 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>3.8166281</v>
@@ -4233,10 +4218,10 @@
         <v>11.4679606</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -4288,10 +4273,10 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>3.8167157999999999</v>
@@ -4300,10 +4285,10 @@
         <v>11.4676726</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -4355,10 +4340,10 @@
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>3.8167045000000002</v>
@@ -4367,10 +4352,10 @@
         <v>11.4677214</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -4422,10 +4407,10 @@
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>3.8167219999999999</v>
@@ -4434,10 +4419,10 @@
         <v>11.467628299999999</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -4489,10 +4474,10 @@
     </row>
     <row r="33" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>3.8168009000000001</v>
@@ -4501,10 +4486,10 @@
         <v>11.468237</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -4556,10 +4541,10 @@
     </row>
     <row r="34" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>3.819553</v>
@@ -4568,10 +4553,10 @@
         <v>11.4717766</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4623,10 +4608,10 @@
     </row>
     <row r="35" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>3.8253465000000002</v>
@@ -4635,7 +4620,7 @@
         <v>11.4713333</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4688,10 +4673,10 @@
     </row>
     <row r="36" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>3.8374416999999998</v>
@@ -4700,7 +4685,7 @@
         <v>11.4966949</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4753,10 +4738,10 @@
     </row>
     <row r="37" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37">
         <v>3.8296999999999999</v>
@@ -4765,10 +4750,10 @@
         <v>11.4712896</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4820,10 +4805,10 @@
     </row>
     <row r="38" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>3.8293520999999999</v>
@@ -4832,10 +4817,10 @@
         <v>11.4709679</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -4887,10 +4872,10 @@
     </row>
     <row r="39" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>3.8331162999999999</v>
@@ -4899,10 +4884,10 @@
         <v>11.4696646</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -4954,10 +4939,10 @@
     </row>
     <row r="40" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>3.8379286000000001</v>
@@ -4966,10 +4951,10 @@
         <v>11.4673298</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -5021,10 +5006,10 @@
     </row>
     <row r="41" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>3.8261894000000001</v>
@@ -5033,10 +5018,10 @@
         <v>11.4772795</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -5088,10 +5073,10 @@
     </row>
     <row r="42" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C42">
         <v>3.8307828000000002</v>
@@ -5100,7 +5085,7 @@
         <v>11.4742982</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -5153,10 +5138,10 @@
     </row>
     <row r="43" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>3.8314135</v>
@@ -5165,7 +5150,7 @@
         <v>11.474373</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -5218,10 +5203,10 @@
     </row>
     <row r="44" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>3.8478729</v>
@@ -5230,10 +5215,10 @@
         <v>11.4838211</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -5285,10 +5270,10 @@
     </row>
     <row r="45" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C45">
         <v>3.8480577</v>
@@ -5297,10 +5282,10 @@
         <v>11.4840625</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -5352,10 +5337,10 @@
     </row>
     <row r="46" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>3.8584304</v>
@@ -5364,10 +5349,10 @@
         <v>11.4858841</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -5419,10 +5404,10 @@
     </row>
     <row r="47" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>3.8553848999999998</v>
@@ -5431,10 +5416,10 @@
         <v>11.492471</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -5486,10 +5471,10 @@
     </row>
     <row r="48" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C48">
         <v>3.8560107000000001</v>
@@ -5498,7 +5483,7 @@
         <v>11.4929872</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -5551,10 +5536,10 @@
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C49">
         <v>3.8163952999999999</v>
@@ -5563,7 +5548,7 @@
         <v>11.468548699999999</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -5616,10 +5601,10 @@
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>3.8697811</v>
@@ -5628,10 +5613,10 @@
         <v>11.497985099999999</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -5683,10 +5668,10 @@
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51">
         <v>3.8686365999999999</v>
@@ -5695,7 +5680,7 @@
         <v>11.497035500000001</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5748,10 +5733,10 @@
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>3.8683420000000002</v>
@@ -5760,10 +5745,10 @@
         <v>11.496689099999999</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -5815,10 +5800,10 @@
     </row>
     <row r="53" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C53">
         <v>3.8684131000000002</v>
@@ -5827,10 +5812,10 @@
         <v>11.494715100000001</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -5882,10 +5867,10 @@
     </row>
     <row r="54" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>3.8685054999999999</v>
@@ -5894,7 +5879,7 @@
         <v>11.4943717</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -5947,10 +5932,10 @@
     </row>
     <row r="55" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C55">
         <v>3.8685695</v>
@@ -5959,10 +5944,10 @@
         <v>11.494016800000001</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -6014,10 +5999,10 @@
     </row>
     <row r="56" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>3.8688302000000001</v>
@@ -6026,10 +6011,10 @@
         <v>11.4940219</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -6081,10 +6066,10 @@
     </row>
     <row r="57" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>3.8688372000000002</v>
@@ -6093,10 +6078,10 @@
         <v>11.494388900000001</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -6148,10 +6133,10 @@
     </row>
     <row r="58" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>3.8689849999999999</v>
@@ -6160,7 +6145,7 @@
         <v>11.4942818</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -6213,10 +6198,10 @@
     </row>
     <row r="59" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C59">
         <v>3.8698237999999998</v>
@@ -6225,10 +6210,10 @@
         <v>11.4919224</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -6280,10 +6265,10 @@
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>3.8697382</v>
@@ -6292,10 +6277,10 @@
         <v>11.4919203</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -6347,10 +6332,10 @@
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>3.8696896000000001</v>
@@ -6359,10 +6344,10 @@
         <v>11.491948799999999</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -6414,10 +6399,10 @@
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>3.8610112999999999</v>
@@ -6426,10 +6411,10 @@
         <v>11.486595299999999</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -6481,10 +6466,10 @@
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>3.8752097000000001</v>
@@ -6493,10 +6478,10 @@
         <v>11.448012</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -6548,10 +6533,10 @@
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>3.8752654999999998</v>
@@ -6560,10 +6545,10 @@
         <v>11.4478594</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -6615,10 +6600,10 @@
     </row>
     <row r="65" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>3.8755115</v>
@@ -6627,10 +6612,10 @@
         <v>11.448097600000001</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -6682,10 +6667,10 @@
     </row>
     <row r="66" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>3.8735439</v>
@@ -6694,10 +6679,10 @@
         <v>11.4399335</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -6749,10 +6734,10 @@
     </row>
     <row r="67" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>3.8767445</v>
@@ -6761,10 +6746,10 @@
         <v>11.4227007</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -6816,10 +6801,10 @@
     </row>
     <row r="68" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>3.8771601000000002</v>
@@ -6828,10 +6813,10 @@
         <v>11.4233464</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -6883,10 +6868,10 @@
     </row>
     <row r="69" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>3.8741257999999998</v>
@@ -6895,10 +6880,10 @@
         <v>11.4250998</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -6950,10 +6935,10 @@
     </row>
     <row r="70" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>3.8747357999999998</v>
@@ -6962,7 +6947,7 @@
         <v>11.431241699999999</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -7015,10 +7000,10 @@
     </row>
     <row r="71" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>3.8762108</v>
@@ -7027,10 +7012,10 @@
         <v>11.4698555</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -7082,10 +7067,10 @@
     </row>
     <row r="72" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <v>3.8772004999999998</v>
@@ -7094,10 +7079,10 @@
         <v>11.5018286</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -7149,10 +7134,10 @@
     </row>
     <row r="73" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>3.8746862000000002</v>
@@ -7161,10 +7146,10 @@
         <v>11.449388900000001</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -7216,10 +7201,10 @@
     </row>
     <row r="74" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C74">
         <v>3.8739838</v>
@@ -7228,10 +7213,10 @@
         <v>11.434794699999999</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -7283,10 +7268,10 @@
     </row>
     <row r="75" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C75">
         <v>3.8741895</v>
@@ -7295,10 +7280,10 @@
         <v>11.4343702</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -7350,10 +7335,10 @@
     </row>
     <row r="76" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C76">
         <v>3.8746520000000002</v>
@@ -7362,7 +7347,7 @@
         <v>11.431063200000001</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -7415,10 +7400,10 @@
     </row>
     <row r="77" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C77">
         <v>3.8747701000000001</v>
@@ -7427,10 +7412,10 @@
         <v>11.4305459</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -7482,10 +7467,10 @@
     </row>
     <row r="78" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C78">
         <v>3.875038</v>
@@ -7494,10 +7479,10 @@
         <v>11.4289161</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -7549,10 +7534,10 @@
     </row>
     <row r="79" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C79">
         <v>3.8799334000000001</v>
@@ -7561,7 +7546,7 @@
         <v>11.465569800000001</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -7614,10 +7599,10 @@
     </row>
     <row r="80" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C80">
         <v>3.8766864999999999</v>
@@ -7626,10 +7611,10 @@
         <v>11.4718564</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -7681,10 +7666,10 @@
     </row>
     <row r="81" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C81">
         <v>3.8298453000000001</v>
@@ -7693,7 +7678,7 @@
         <v>11.4932854</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -7746,10 +7731,10 @@
     </row>
     <row r="82" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C82">
         <v>3.8953552</v>
@@ -7758,10 +7743,10 @@
         <v>11.4934916</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -7813,10 +7798,10 @@
     </row>
     <row r="83" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C83">
         <v>3.8939279999999998</v>
@@ -7825,10 +7810,10 @@
         <v>11.4944313</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -7880,10 +7865,10 @@
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C84">
         <v>3.8964248000000001</v>
@@ -7892,10 +7877,10 @@
         <v>11.490433299999999</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -7947,10 +7932,10 @@
     </row>
     <row r="85" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C85">
         <v>3.8965017999999998</v>
@@ -7959,7 +7944,7 @@
         <v>11.4910272</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -8012,10 +7997,10 @@
     </row>
     <row r="86" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C86">
         <v>3.8974757000000002</v>
@@ -8024,10 +8009,10 @@
         <v>11.4860931</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -8079,10 +8064,10 @@
     </row>
     <row r="87" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C87">
         <v>3.8948668999999998</v>
@@ -8091,7 +8076,7 @@
         <v>11.478896000000001</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -8144,10 +8129,10 @@
     </row>
     <row r="88" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C88">
         <v>3.8809317000000001</v>
@@ -8156,10 +8141,10 @@
         <v>11.4901622</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -8211,10 +8196,10 @@
     </row>
     <row r="89" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C89">
         <v>3.8797899999999998</v>
@@ -8223,10 +8208,10 @@
         <v>11.491338900000001</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -8278,10 +8263,10 @@
     </row>
     <row r="90" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C90">
         <v>3.8855609000000002</v>
@@ -8290,7 +8275,7 @@
         <v>11.493137900000001</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -8343,10 +8328,10 @@
     </row>
     <row r="91" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C91">
         <v>3.8764012999999999</v>
@@ -8355,10 +8340,10 @@
         <v>11.484170600000001</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -8410,10 +8395,10 @@
     </row>
     <row r="92" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C92">
         <v>3.8083569000000002</v>
@@ -8422,10 +8407,10 @@
         <v>11.514227399999999</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -8477,10 +8462,10 @@
     </row>
     <row r="93" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C93">
         <v>3.7925163</v>
@@ -8489,7 +8474,7 @@
         <v>11.486807300000001</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -8542,10 +8527,10 @@
     </row>
     <row r="94" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C94">
         <v>3.7947880999999999</v>
@@ -8554,10 +8539,10 @@
         <v>11.491642300000001</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -8609,10 +8594,10 @@
     </row>
     <row r="95" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C95">
         <v>3.7950978000000002</v>
@@ -8621,10 +8606,10 @@
         <v>11.491104099999999</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -8676,10 +8661,10 @@
     </row>
     <row r="96" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C96">
         <v>3.7982013000000001</v>
@@ -8688,10 +8673,10 @@
         <v>11.5365509</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -8743,10 +8728,10 @@
     </row>
     <row r="97" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C97">
         <v>3.7977273</v>
@@ -8755,10 +8740,10 @@
         <v>11.5363392</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -8810,10 +8795,10 @@
     </row>
     <row r="98" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C98">
         <v>3.8850685999999999</v>
@@ -8822,7 +8807,7 @@
         <v>11.491273100000001</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -8875,10 +8860,10 @@
     </row>
     <row r="99" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C99">
         <v>3.8840273999999999</v>
@@ -8887,7 +8872,7 @@
         <v>11.493459100000001</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -8940,10 +8925,10 @@
     </row>
     <row r="100" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C100">
         <v>3.8907281999999999</v>
@@ -8952,10 +8937,10 @@
         <v>11.4976205</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -9007,10 +8992,10 @@
     </row>
     <row r="101" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C101">
         <v>3.8868105000000002</v>
@@ -9019,10 +9004,10 @@
         <v>11.497597900000001</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -9074,10 +9059,10 @@
     </row>
     <row r="102" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C102">
         <v>3.8485982999999999</v>
@@ -9086,7 +9071,7 @@
         <v>11.4845898</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -9139,10 +9124,10 @@
     </row>
     <row r="103" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C103">
         <v>3.8427465999999999</v>
@@ -9151,10 +9136,10 @@
         <v>11.534251299999999</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -9206,10 +9191,10 @@
     </row>
     <row r="104" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C104">
         <v>3.8361394999999998</v>
@@ -9218,7 +9203,7 @@
         <v>11.541529799999999</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -9271,10 +9256,10 @@
     </row>
     <row r="105" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C105">
         <v>3.8361776999999999</v>
@@ -9283,10 +9268,10 @@
         <v>11.5413684</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -9338,10 +9323,10 @@
     </row>
     <row r="106" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C106">
         <v>3.8359890999999999</v>
@@ -9350,10 +9335,10 @@
         <v>11.541077</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -9405,10 +9390,10 @@
     </row>
     <row r="107" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C107">
         <v>3.8359277999999999</v>
@@ -9417,10 +9402,10 @@
         <v>11.540733299999999</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -9472,10 +9457,10 @@
     </row>
     <row r="108" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C108">
         <v>3.8366251999999998</v>
@@ -9484,7 +9469,7 @@
         <v>11.5403137</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -9537,10 +9522,10 @@
     </row>
     <row r="109" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C109">
         <v>3.8366815999999999</v>
@@ -9549,10 +9534,10 @@
         <v>11.5400086</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -9604,10 +9589,10 @@
     </row>
     <row r="110" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C110">
         <v>3.8367209999999998</v>
@@ -9616,10 +9601,10 @@
         <v>11.5396766</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -9671,10 +9656,10 @@
     </row>
     <row r="111" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C111">
         <v>3.8366023999999999</v>
@@ -9683,7 +9668,7 @@
         <v>11.5395115</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -9736,10 +9721,10 @@
     </row>
     <row r="112" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C112">
         <v>3.8364294000000001</v>
@@ -9748,10 +9733,10 @@
         <v>11.5395501</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -9803,10 +9788,10 @@
     </row>
     <row r="113" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C113">
         <v>3.8351845999999998</v>
@@ -9815,7 +9800,7 @@
         <v>11.540758800000001</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -9868,10 +9853,10 @@
     </row>
     <row r="114" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C114">
         <v>3.8352385999999998</v>
@@ -9880,10 +9865,10 @@
         <v>11.5407224</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -9935,10 +9920,10 @@
     </row>
     <row r="115" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C115">
         <v>3.8351986</v>
@@ -9947,7 +9932,7 @@
         <v>11.5407914</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -10000,10 +9985,10 @@
     </row>
     <row r="116" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C116">
         <v>3.8352997000000002</v>
@@ -10012,10 +9997,10 @@
         <v>11.540937599999999</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -10067,10 +10052,10 @@
     </row>
     <row r="117" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C117">
         <v>3.8355006999999999</v>
@@ -10079,7 +10064,7 @@
         <v>11.540964799999999</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -10132,10 +10117,10 @@
     </row>
     <row r="118" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C118">
         <v>3.8356764000000001</v>
@@ -10144,10 +10129,10 @@
         <v>11.541066000000001</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -10199,10 +10184,10 @@
     </row>
     <row r="119" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C119">
         <v>3.8350990999999999</v>
@@ -10211,10 +10196,10 @@
         <v>11.5410913</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -10266,10 +10251,10 @@
     </row>
     <row r="120" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120">
         <v>3.8332104999999999</v>
@@ -10278,7 +10263,7 @@
         <v>11.5409521</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -10331,10 +10316,10 @@
     </row>
     <row r="121" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C121">
         <v>3.8351772</v>
@@ -10343,7 +10328,7 @@
         <v>11.541064199999999</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -10396,10 +10381,10 @@
     </row>
     <row r="122" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C122">
         <v>3.8332605000000002</v>
@@ -10408,10 +10393,10 @@
         <v>11.5413111</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -10463,10 +10448,10 @@
     </row>
     <row r="123" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C123">
         <v>3.8331982</v>
@@ -10475,10 +10460,10 @@
         <v>11.541125900000001</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -10530,10 +10515,10 @@
     </row>
     <row r="124" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C124">
         <v>3.8351025000000001</v>
@@ -10542,10 +10527,10 @@
         <v>11.541180300000001</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -10597,10 +10582,10 @@
     </row>
     <row r="125" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C125">
         <v>3.8334619000000001</v>
@@ -10609,10 +10594,10 @@
         <v>11.541176</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -10664,10 +10649,10 @@
     </row>
     <row r="126" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C126">
         <v>3.8330907999999999</v>
@@ -10676,7 +10661,7 @@
         <v>11.540896699999999</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -10729,10 +10714,10 @@
     </row>
     <row r="127" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C127">
         <v>3.8772861000000001</v>
@@ -10741,7 +10726,7 @@
         <v>11.5016838</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -10794,10 +10779,10 @@
     </row>
     <row r="128" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C128">
         <v>3.8810381</v>
@@ -10806,7 +10791,7 @@
         <v>11.4864975</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -10859,10 +10844,10 @@
     </row>
     <row r="129" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C129">
         <v>3.8780032000000002</v>
@@ -10871,10 +10856,10 @@
         <v>11.5007158</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -10926,10 +10911,10 @@
     </row>
     <row r="130" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C130">
         <v>3.8863973000000001</v>
@@ -10938,7 +10923,7 @@
         <v>11.4915497</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -10991,10 +10976,10 @@
     </row>
     <row r="131" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C131">
         <v>3.8529423</v>
@@ -11003,7 +10988,7 @@
         <v>11.490815100000001</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -11056,10 +11041,10 @@
     </row>
     <row r="132" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C132">
         <v>3.8238265999999999</v>
@@ -11068,7 +11053,7 @@
         <v>11.507727300000001</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -11121,10 +11106,10 @@
     </row>
     <row r="133" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C133">
         <v>3.8225454000000001</v>
@@ -11133,7 +11118,7 @@
         <v>11.5080428</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -11186,10 +11171,10 @@
     </row>
     <row r="134" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C134">
         <v>3.8171895</v>
@@ -11198,10 +11183,10 @@
         <v>11.494783999999999</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -11253,10 +11238,10 @@
     </row>
     <row r="135" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C135">
         <v>3.8335851000000001</v>
@@ -11265,7 +11250,7 @@
         <v>11.5410042</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -11318,10 +11303,10 @@
     </row>
     <row r="136" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C136">
         <v>3.8334880999999998</v>
@@ -11330,10 +11315,10 @@
         <v>11.540918</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -11385,10 +11370,10 @@
     </row>
     <row r="137" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C137">
         <v>3.8332571999999998</v>
@@ -11397,7 +11382,7 @@
         <v>11.540968400000001</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -11450,10 +11435,10 @@
     </row>
     <row r="138" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C138">
         <v>3.8332703000000001</v>
@@ -11462,10 +11447,10 @@
         <v>11.5406759</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
